--- a/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_25.xlsx
+++ b/Outputs/4. Prosumer percentage constrained/Grid Search/Output Files/100/Output_3_25.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>985913.7432880893</v>
+        <v>1029775.240560377</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>17254715.44216109</v>
+        <v>16597726.15245798</v>
       </c>
     </row>
     <row r="8">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7201699.136276105</v>
+        <v>7220638.531581489</v>
       </c>
     </row>
     <row r="11">
@@ -662,22 +662,22 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>320.438933951508</v>
+        <v>31.5506869772999</v>
       </c>
       <c r="E2" t="n">
-        <v>29.43699739328775</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F2" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G2" t="n">
-        <v>397.3838530629687</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -707,25 +707,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T2" t="n">
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>0.8069000430770075</v>
+        <v>396.5691005212884</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y2" t="n">
-        <v>404.2032624633431</v>
+        <v>4.203262463343094</v>
       </c>
     </row>
     <row r="3">
@@ -814,13 +814,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E4" t="n">
         <v>168.0604237117701</v>
@@ -832,7 +832,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I4" t="n">
         <v>87.77334973307141</v>
@@ -862,25 +862,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S4" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T4" t="n">
-        <v>106.3566414529857</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U4" t="n">
-        <v>275.6486707394257</v>
+        <v>148.3610185201578</v>
       </c>
       <c r="V4" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W4" t="n">
         <v>269.3061403695714</v>
       </c>
       <c r="X4" t="n">
-        <v>242.9378371199217</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
         <v>0</v>
@@ -899,10 +899,10 @@
         <v>33.76104808841092</v>
       </c>
       <c r="D5" t="n">
-        <v>39.34122081347544</v>
+        <v>306.5999728222801</v>
       </c>
       <c r="E5" t="n">
-        <v>424.2958575201043</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F5" t="n">
         <v>423.5887552948843</v>
@@ -911,10 +911,10 @@
         <v>397.3838530629687</v>
       </c>
       <c r="H5" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,13 +944,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T5" t="n">
-        <v>0</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>14.9510387864824</v>
       </c>
       <c r="Y5" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="6">
@@ -1051,28 +1051,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E7" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F7" t="n">
-        <v>174.9399834978613</v>
+        <v>90.30617524481291</v>
       </c>
       <c r="G7" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1099,19 +1099,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T7" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U7" t="n">
-        <v>263.7789903949036</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W7" t="n">
         <v>269.3061403695714</v>
@@ -1130,7 +1130,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>22.03657478005869</v>
+        <v>335.8915546016272</v>
       </c>
       <c r="C8" t="n">
         <v>33.76104808841092</v>
@@ -1139,10 +1139,10 @@
         <v>31.5506869772999</v>
       </c>
       <c r="E8" t="n">
-        <v>429.4369973932878</v>
+        <v>29.43699739328775</v>
       </c>
       <c r="F8" t="n">
-        <v>187.3873900612827</v>
+        <v>23.58875529488432</v>
       </c>
       <c r="G8" t="n">
         <v>0</v>
@@ -1187,19 +1187,19 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V8" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W8" t="n">
-        <v>0.8069000430770075</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X8" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.203262463343094</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="9">
@@ -1288,7 +1288,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C10" t="n">
         <v>170.8360944016073</v>
@@ -1297,7 +1297,7 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E10" t="n">
-        <v>80.9269728908336</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>35.20092700998642</v>
       </c>
       <c r="U10" t="n">
         <v>275.6486707394257</v>
@@ -1351,13 +1351,13 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W10" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X10" t="n">
         <v>242.9378371199217</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="11">
@@ -1376,13 +1376,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>418.0559443148201</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F11" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>397.3838530629687</v>
+        <v>129.372720328348</v>
       </c>
       <c r="H11" t="n">
         <v>286.2388530112159</v>
@@ -1424,7 +1424,7 @@
         <v>217.8665548556918</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
@@ -1543,10 +1543,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S13" t="n">
-        <v>18.05677735225706</v>
+        <v>39.88277234054721</v>
       </c>
       <c r="T13" t="n">
         <v>243.4206519573293</v>
@@ -1588,7 +1588,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W13" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X13" t="n">
         <v>242.9378371199217</v>
@@ -1616,7 +1616,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F14" t="n">
-        <v>412.620323695548</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
         <v>397.3838530629687</v>
@@ -1655,19 +1655,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.6300796561533</v>
       </c>
       <c r="V14" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>400.806900043077</v>
+        <v>216.0237438655884</v>
       </c>
       <c r="X14" t="n">
         <v>414.9510387864824</v>
@@ -1780,7 +1780,7 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H16" t="n">
-        <v>138.5031525665292</v>
+        <v>48.28314334362867</v>
       </c>
       <c r="I16" t="n">
         <v>87.77334973307141</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
         <v>157.6489550149833</v>
@@ -1822,7 +1822,7 @@
         <v>0</v>
       </c>
       <c r="V16" t="n">
-        <v>172.6623007436909</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W16" t="n">
         <v>269.3061403695714</v>
@@ -1844,7 +1844,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>248.565270431791</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
         <v>431.5506869772999</v>
@@ -1862,7 +1862,7 @@
         <v>286.2388530112159</v>
       </c>
       <c r="I17" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1907,7 +1907,7 @@
         <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>230.1678826089943</v>
       </c>
       <c r="Y17" t="n">
         <v>404.2032624633431</v>
@@ -2014,13 +2014,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G19" t="n">
-        <v>43.4889870101594</v>
+        <v>20.28369113775237</v>
       </c>
       <c r="H19" t="n">
         <v>138.5031525665292</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,13 +2047,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T19" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U19" t="n">
         <v>275.6486707394257</v>
@@ -2129,19 +2129,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T20" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U20" t="n">
-        <v>256.6300796561533</v>
+        <v>71.43430199953282</v>
       </c>
       <c r="V20" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>132.7957673084558</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X20" t="n">
         <v>414.9510387864824</v>
@@ -2242,7 +2242,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>161.0723471410684</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
@@ -2254,10 +2254,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,13 +2284,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S22" t="n">
         <v>0</v>
       </c>
       <c r="T22" t="n">
-        <v>243.4206519573293</v>
+        <v>199.4201398804784</v>
       </c>
       <c r="U22" t="n">
         <v>275.6486707394257</v>
@@ -2485,16 +2485,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F25" t="n">
-        <v>71.95361350212674</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G25" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H25" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,10 +2521,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>157.6489550149833</v>
+        <v>18.05677735225796</v>
       </c>
       <c r="T25" t="n">
         <v>243.4206519573293</v>
@@ -2533,7 +2533,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V25" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W25" t="n">
         <v>269.3061403695714</v>
@@ -2713,7 +2713,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>0</v>
+        <v>10.04027365720006</v>
       </c>
       <c r="D28" t="n">
         <v>164.2192128704925</v>
@@ -2728,10 +2728,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H28" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2767,7 +2767,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U28" t="n">
-        <v>59.41244209702488</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V28" t="n">
         <v>284.0859530482738</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>189.9004325317972</v>
+        <v>50.30825486907179</v>
       </c>
       <c r="C31" t="n">
         <v>170.8360944016073</v>
@@ -2965,10 +2965,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H31" t="n">
-        <v>41.94061297377466</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3199,10 +3199,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>24.3431845617052</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I34" t="n">
         <v>0</v>
@@ -3235,10 +3235,10 @@
         <v>0</v>
       </c>
       <c r="S34" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>243.4206519573293</v>
+        <v>122.9742767430578</v>
       </c>
       <c r="U34" t="n">
         <v>275.6486707394257</v>
@@ -3275,7 +3275,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948834</v>
       </c>
       <c r="G35" t="n">
         <v>397.3838530629687</v>
@@ -3317,7 +3317,7 @@
         <v>82.81535507800136</v>
       </c>
       <c r="T35" t="n">
-        <v>217.8665548556909</v>
+        <v>217.8665548556918</v>
       </c>
       <c r="U35" t="n">
         <v>256.6300796561533</v>
@@ -3424,7 +3424,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>8.90924533663147</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3436,13 +3436,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G37" t="n">
-        <v>163.9353622244306</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I37" t="n">
-        <v>87.77334973307141</v>
+        <v>24.34318456170526</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -3469,7 +3469,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S37" t="n">
         <v>157.6489550149833</v>
@@ -3490,7 +3490,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y37" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="38">
@@ -3512,7 +3512,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
-        <v>423.5887552948843</v>
+        <v>423.5887552948848</v>
       </c>
       <c r="G38" t="n">
         <v>397.3838530629687</v>
@@ -3658,7 +3658,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C40" t="n">
         <v>170.8360944016073</v>
@@ -3676,10 +3676,10 @@
         <v>163.9353622244306</v>
       </c>
       <c r="H40" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3721,10 +3721,10 @@
         <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
-        <v>72.13424985736032</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X40" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551395</v>
       </c>
       <c r="Y40" t="n">
         <v>225.1454739790328</v>
@@ -3907,13 +3907,13 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F43" t="n">
-        <v>151.2896809263502</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
         <v>163.9353622244306</v>
       </c>
       <c r="H43" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3952,7 +3952,7 @@
         <v>243.4206519573293</v>
       </c>
       <c r="U43" t="n">
-        <v>0</v>
+        <v>275.6486707394257</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3961,7 +3961,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X43" t="n">
-        <v>242.9378371199217</v>
+        <v>82.14201637551439</v>
       </c>
       <c r="Y43" t="n">
         <v>225.1454739790328</v>
@@ -3977,7 +3977,7 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C44" t="n">
-        <v>433.7610480884118</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
         <v>431.5506869772999</v>
@@ -4153,7 +4153,7 @@
         <v>138.5031525665292</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,13 +4180,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S46" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
-        <v>190.4707957071104</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U46" t="n">
         <v>275.6486707394257</v>
@@ -4198,7 +4198,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X46" t="n">
-        <v>242.9378371199217</v>
+        <v>238.6599430699298</v>
       </c>
       <c r="Y46" t="n">
         <v>0</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1250.721030006719</v>
+        <v>1266.267852473652</v>
       </c>
       <c r="C2" t="n">
-        <v>1216.618961230547</v>
+        <v>1232.165783697479</v>
       </c>
       <c r="D2" t="n">
-        <v>892.9432703704374</v>
+        <v>1200.296402912327</v>
       </c>
       <c r="E2" t="n">
-        <v>863.2089295691367</v>
+        <v>766.5216580706227</v>
       </c>
       <c r="F2" t="n">
-        <v>435.3414999783445</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="G2" t="n">
-        <v>33.94366860160834</v>
+        <v>338.6542284798305</v>
       </c>
       <c r="H2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.52407392304671</v>
       </c>
       <c r="I2" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J2" t="n">
-        <v>453.9965675465116</v>
+        <v>484.3619720031046</v>
       </c>
       <c r="K2" t="n">
-        <v>453.9965675465116</v>
+        <v>1092.064618311665</v>
       </c>
       <c r="L2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="M2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="N2" t="n">
-        <v>453.9965675465116</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="O2" t="n">
-        <v>874.0494664914149</v>
+        <v>1132.008730489124</v>
       </c>
       <c r="P2" t="n">
-        <v>1107.976466382457</v>
+        <v>1739.711376797684</v>
       </c>
       <c r="Q2" t="n">
-        <v>1528.02936532736</v>
+        <v>2286.210162756279</v>
       </c>
       <c r="R2" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="S2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="T2" t="n">
-        <v>1697.183430080417</v>
+        <v>2371.712353693173</v>
       </c>
       <c r="U2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.49005101019</v>
       </c>
       <c r="V2" t="n">
-        <v>1697.183430080417</v>
+        <v>2112.49005101019</v>
       </c>
       <c r="W2" t="n">
-        <v>1696.368379531855</v>
+        <v>1711.915201998787</v>
       </c>
       <c r="X2" t="n">
-        <v>1681.26632015157</v>
+        <v>1292.772738578098</v>
       </c>
       <c r="Y2" t="n">
-        <v>1272.980196451223</v>
+        <v>1288.527018918155</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>540.1154135929012</v>
+        <v>555.2790295414795</v>
       </c>
       <c r="C3" t="n">
-        <v>433.6589524295435</v>
+        <v>448.8225683781218</v>
       </c>
       <c r="D3" t="n">
-        <v>338.5686635760967</v>
+        <v>353.7322795246751</v>
       </c>
       <c r="E3" t="n">
-        <v>244.4482489030504</v>
+        <v>259.6118648516288</v>
       </c>
       <c r="F3" t="n">
-        <v>161.0644105192121</v>
+        <v>176.2280264677904</v>
       </c>
       <c r="G3" t="n">
-        <v>75.67932078539593</v>
+        <v>90.84293673397424</v>
       </c>
       <c r="H3" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="I3" t="n">
-        <v>60.00734176206595</v>
+        <v>75.17095771064432</v>
       </c>
       <c r="J3" t="n">
-        <v>384.5656667282782</v>
+        <v>399.7292826768566</v>
       </c>
       <c r="K3" t="n">
-        <v>804.6185656731816</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="L3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="M3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="N3" t="n">
-        <v>1159.957753041174</v>
+        <v>1007.431928985417</v>
       </c>
       <c r="O3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="P3" t="n">
-        <v>1159.957753041174</v>
+        <v>1054.43532930258</v>
       </c>
       <c r="Q3" t="n">
-        <v>1580.010651986078</v>
+        <v>1595.174267934656</v>
       </c>
       <c r="R3" t="n">
-        <v>1697.183430080417</v>
+        <v>1712.347046028996</v>
       </c>
       <c r="S3" t="n">
-        <v>1633.7279925288</v>
+        <v>1648.891608477379</v>
       </c>
       <c r="T3" t="n">
-        <v>1503.549348859402</v>
+        <v>1518.71296480798</v>
       </c>
       <c r="U3" t="n">
-        <v>1327.21280185937</v>
+        <v>1342.376417807949</v>
       </c>
       <c r="V3" t="n">
-        <v>1128.09528392137</v>
+        <v>1143.258899869948</v>
       </c>
       <c r="W3" t="n">
-        <v>942.7725296545636</v>
+        <v>957.936145603142</v>
       </c>
       <c r="X3" t="n">
-        <v>787.9050938934436</v>
+        <v>803.0687098420219</v>
       </c>
       <c r="Y3" t="n">
-        <v>661.4193146726643</v>
+        <v>676.5829306212427</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>634.6599505886118</v>
+        <v>1128.165445162068</v>
       </c>
       <c r="C4" t="n">
-        <v>634.6599505886118</v>
+        <v>955.6037336452931</v>
       </c>
       <c r="D4" t="n">
-        <v>634.6599505886118</v>
+        <v>789.7257408468158</v>
       </c>
       <c r="E4" t="n">
-        <v>464.9019468393491</v>
+        <v>619.967737097553</v>
       </c>
       <c r="F4" t="n">
-        <v>288.1948928011053</v>
+        <v>443.2606830593092</v>
       </c>
       <c r="G4" t="n">
-        <v>122.603617826933</v>
+        <v>277.6694080851369</v>
       </c>
       <c r="H4" t="n">
-        <v>122.603617826933</v>
+        <v>137.7672337755114</v>
       </c>
       <c r="I4" t="n">
-        <v>33.94366860160834</v>
+        <v>49.10728455018671</v>
       </c>
       <c r="J4" t="n">
-        <v>120.5233537662982</v>
+        <v>135.6869697148766</v>
       </c>
       <c r="K4" t="n">
-        <v>395.2818083374338</v>
+        <v>410.4454242860122</v>
       </c>
       <c r="L4" t="n">
-        <v>688.8848573262783</v>
+        <v>828.6553060539733</v>
       </c>
       <c r="M4" t="n">
-        <v>1108.937756271182</v>
+        <v>1288.139173234886</v>
       </c>
       <c r="N4" t="n">
-        <v>1528.990655216085</v>
+        <v>1688.188084313212</v>
       </c>
       <c r="O4" t="n">
-        <v>1528.990655216085</v>
+        <v>2107.857333538994</v>
       </c>
       <c r="P4" t="n">
-        <v>1528.990655216085</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="Q4" t="n">
-        <v>1697.183430080417</v>
+        <v>2455.364227509336</v>
       </c>
       <c r="R4" t="n">
-        <v>1697.183430080417</v>
+        <v>2433.946406214708</v>
       </c>
       <c r="S4" t="n">
-        <v>1537.942061378414</v>
+        <v>2274.705037512704</v>
       </c>
       <c r="T4" t="n">
-        <v>1430.511110415802</v>
+        <v>2028.825591091159</v>
       </c>
       <c r="U4" t="n">
-        <v>1152.078109668908</v>
+        <v>1878.965976424333</v>
       </c>
       <c r="V4" t="n">
-        <v>1152.078109668908</v>
+        <v>1592.010468294764</v>
       </c>
       <c r="W4" t="n">
-        <v>880.0517052551993</v>
+        <v>1319.984063881055</v>
       </c>
       <c r="X4" t="n">
-        <v>634.6599505886118</v>
+        <v>1319.984063881055</v>
       </c>
       <c r="Y4" t="n">
-        <v>634.6599505886118</v>
+        <v>1319.984063881055</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1654.761434047123</v>
+        <v>1660.657022731622</v>
       </c>
       <c r="C5" t="n">
-        <v>1620.659365270951</v>
+        <v>1626.554953955449</v>
       </c>
       <c r="D5" t="n">
-        <v>1580.920758388652</v>
+        <v>1316.858011710722</v>
       </c>
       <c r="E5" t="n">
-        <v>1152.33908412592</v>
+        <v>883.0832668690169</v>
       </c>
       <c r="F5" t="n">
-        <v>724.4716545351282</v>
+        <v>455.2158372782247</v>
       </c>
       <c r="G5" t="n">
-        <v>323.0738231583921</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="H5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.81800590148855</v>
       </c>
       <c r="I5" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J5" t="n">
-        <v>33.94366860160834</v>
+        <v>488.6559039815464</v>
       </c>
       <c r="K5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="L5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="M5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="N5" t="n">
-        <v>437.0247332457074</v>
+        <v>1149.495958523325</v>
       </c>
       <c r="O5" t="n">
-        <v>857.0776321906106</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P5" t="n">
-        <v>1277.130531135514</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q5" t="n">
-        <v>1697.183430080417</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R5" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S5" t="n">
-        <v>1697.183430080417</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T5" t="n">
-        <v>1697.183430080417</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V5" t="n">
-        <v>1697.183430080417</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="W5" t="n">
-        <v>1696.368379531855</v>
+        <v>2106.304372256757</v>
       </c>
       <c r="X5" t="n">
-        <v>1681.26632015157</v>
+        <v>2091.202312876472</v>
       </c>
       <c r="Y5" t="n">
-        <v>1677.020600491627</v>
+        <v>1682.916189176125</v>
       </c>
     </row>
     <row r="6">
@@ -4620,76 +4620,76 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>540.1154135929012</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C6" t="n">
-        <v>433.6589524295435</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D6" t="n">
-        <v>338.5686635760967</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E6" t="n">
-        <v>244.4482489030504</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F6" t="n">
-        <v>161.0644105192121</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G6" t="n">
-        <v>75.67932078539593</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H6" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I6" t="n">
-        <v>60.00734176206595</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J6" t="n">
-        <v>384.5656667282782</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K6" t="n">
-        <v>804.6185656731816</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P6" t="n">
-        <v>1159.957753041174</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q6" t="n">
-        <v>1580.010651986078</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R6" t="n">
-        <v>1697.183430080417</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S6" t="n">
-        <v>1633.7279925288</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T6" t="n">
-        <v>1503.549348859402</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U6" t="n">
-        <v>1327.21280185937</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V6" t="n">
-        <v>1128.09528392137</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W6" t="n">
-        <v>942.7725296545636</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X6" t="n">
-        <v>787.9050938934436</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y6" t="n">
-        <v>661.4193146726643</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="7">
@@ -4699,76 +4699,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>685.9021756729128</v>
+        <v>741.4772326516127</v>
       </c>
       <c r="C7" t="n">
-        <v>685.9021756729128</v>
+        <v>568.9155211348376</v>
       </c>
       <c r="D7" t="n">
-        <v>685.9021756729128</v>
+        <v>403.0375283363603</v>
       </c>
       <c r="E7" t="n">
-        <v>516.14417192365</v>
+        <v>233.2795245870976</v>
       </c>
       <c r="F7" t="n">
-        <v>339.4371178854062</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="G7" t="n">
-        <v>173.8458429112338</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="H7" t="n">
-        <v>33.94366860160834</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I7" t="n">
-        <v>33.94366860160834</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J7" t="n">
-        <v>33.94366860160834</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K7" t="n">
-        <v>33.94366860160834</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L7" t="n">
-        <v>452.1535503695694</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M7" t="n">
-        <v>872.2064493144727</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N7" t="n">
-        <v>930.0072868842942</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O7" t="n">
-        <v>1349.676536110076</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P7" t="n">
-        <v>1697.183430080417</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q7" t="n">
-        <v>1697.183430080417</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R7" t="n">
-        <v>1697.183430080417</v>
+        <v>2648.6430051368</v>
       </c>
       <c r="S7" t="n">
-        <v>1697.183430080417</v>
+        <v>2489.401636434797</v>
       </c>
       <c r="T7" t="n">
-        <v>1697.183430080417</v>
+        <v>2243.522190013252</v>
       </c>
       <c r="U7" t="n">
-        <v>1430.740005439101</v>
+        <v>1965.089189266357</v>
       </c>
       <c r="V7" t="n">
-        <v>1430.740005439101</v>
+        <v>1678.133681136788</v>
       </c>
       <c r="W7" t="n">
-        <v>1158.713601025392</v>
+        <v>1406.107276723079</v>
       </c>
       <c r="X7" t="n">
-        <v>913.3218463588046</v>
+        <v>1160.715522056492</v>
       </c>
       <c r="Y7" t="n">
-        <v>685.9021756729128</v>
+        <v>933.2958513705998</v>
       </c>
     </row>
     <row r="8">
@@ -4778,76 +4778,76 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>725.7983218426351</v>
+        <v>172.9340324416416</v>
       </c>
       <c r="C8" t="n">
-        <v>691.6962530664625</v>
+        <v>138.8319636654689</v>
       </c>
       <c r="D8" t="n">
-        <v>659.8268722813111</v>
+        <v>106.9625828803175</v>
       </c>
       <c r="E8" t="n">
-        <v>226.0521274396063</v>
+        <v>77.22824207901677</v>
       </c>
       <c r="F8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="G8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="H8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J8" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="K8" t="n">
-        <v>491.8246367576064</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="L8" t="n">
-        <v>491.8246367576064</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="M8" t="n">
-        <v>491.8246367576064</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="N8" t="n">
-        <v>491.8246367576064</v>
+        <v>714.2412710704069</v>
       </c>
       <c r="O8" t="n">
-        <v>946.8773380567001</v>
+        <v>1293.567921177998</v>
       </c>
       <c r="P8" t="n">
-        <v>1383.544071626538</v>
+        <v>1954.407975719776</v>
       </c>
       <c r="Q8" t="n">
-        <v>1838.596772925631</v>
+        <v>2500.906761678371</v>
       </c>
       <c r="R8" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S8" t="n">
-        <v>1754.944899109468</v>
+        <v>2586.408952615265</v>
       </c>
       <c r="T8" t="n">
-        <v>1534.877671982507</v>
+        <v>2366.341725488303</v>
       </c>
       <c r="U8" t="n">
-        <v>1534.877671982507</v>
+        <v>2107.11942280532</v>
       </c>
       <c r="V8" t="n">
-        <v>1172.260721916333</v>
+        <v>1744.502472739146</v>
       </c>
       <c r="W8" t="n">
-        <v>1171.445671367771</v>
+        <v>1339.64701815018</v>
       </c>
       <c r="X8" t="n">
-        <v>752.3032079470814</v>
+        <v>920.5045547294905</v>
       </c>
       <c r="Y8" t="n">
-        <v>748.0574882871389</v>
+        <v>512.2184310291439</v>
       </c>
     </row>
     <row r="9">
@@ -4857,76 +4857,76 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>542.9436804498055</v>
+        <v>559.5729615199214</v>
       </c>
       <c r="C9" t="n">
-        <v>436.4872192864477</v>
+        <v>453.1165003565636</v>
       </c>
       <c r="D9" t="n">
-        <v>341.396930433001</v>
+        <v>358.0262115031169</v>
       </c>
       <c r="E9" t="n">
-        <v>247.2765157599547</v>
+        <v>263.9057968300706</v>
       </c>
       <c r="F9" t="n">
-        <v>163.8926773761163</v>
+        <v>180.5219584462322</v>
       </c>
       <c r="G9" t="n">
-        <v>78.50758764230017</v>
+        <v>95.13686871241609</v>
       </c>
       <c r="H9" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="I9" t="n">
-        <v>62.83560861897023</v>
+        <v>79.46488968908616</v>
       </c>
       <c r="J9" t="n">
-        <v>387.3939335851826</v>
+        <v>404.0232146552985</v>
       </c>
       <c r="K9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="L9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="M9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="N9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="O9" t="n">
-        <v>842.4466348842762</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="P9" t="n">
-        <v>1127.786217543888</v>
+        <v>1058.729261281022</v>
       </c>
       <c r="Q9" t="n">
-        <v>1582.838918842982</v>
+        <v>1599.468199913098</v>
       </c>
       <c r="R9" t="n">
-        <v>1700.011696937322</v>
+        <v>1716.640978007438</v>
       </c>
       <c r="S9" t="n">
-        <v>1636.556259385705</v>
+        <v>1653.185540455821</v>
       </c>
       <c r="T9" t="n">
-        <v>1506.377615716306</v>
+        <v>1523.006896786422</v>
       </c>
       <c r="U9" t="n">
-        <v>1330.041068716275</v>
+        <v>1346.67034978639</v>
       </c>
       <c r="V9" t="n">
-        <v>1130.923550778274</v>
+        <v>1147.55283184839</v>
       </c>
       <c r="W9" t="n">
-        <v>945.6007965114679</v>
+        <v>962.2300775815838</v>
       </c>
       <c r="X9" t="n">
-        <v>790.7333607503479</v>
+        <v>807.3626418204638</v>
       </c>
       <c r="Y9" t="n">
-        <v>664.2475815295686</v>
+        <v>680.8768625996845</v>
       </c>
     </row>
     <row r="10">
@@ -4936,76 +4936,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>1027.816509382579</v>
+        <v>1132.45937714051</v>
       </c>
       <c r="C10" t="n">
-        <v>855.2547978658043</v>
+        <v>959.897665623735</v>
       </c>
       <c r="D10" t="n">
-        <v>689.376805067327</v>
+        <v>794.0196728252577</v>
       </c>
       <c r="E10" t="n">
-        <v>607.632388005879</v>
+        <v>624.2616690759949</v>
       </c>
       <c r="F10" t="n">
-        <v>430.9253339676351</v>
+        <v>447.554615037751</v>
       </c>
       <c r="G10" t="n">
-        <v>265.3340589934628</v>
+        <v>281.9633400635787</v>
       </c>
       <c r="H10" t="n">
-        <v>125.4318846838373</v>
+        <v>142.0611657539532</v>
       </c>
       <c r="I10" t="n">
-        <v>36.77193545851263</v>
+        <v>53.40121652862856</v>
       </c>
       <c r="J10" t="n">
-        <v>123.3516206232025</v>
+        <v>139.9809016933184</v>
       </c>
       <c r="K10" t="n">
-        <v>398.1100751943381</v>
+        <v>414.739356264454</v>
       </c>
       <c r="L10" t="n">
-        <v>795.6820475364236</v>
+        <v>832.9492380324151</v>
       </c>
       <c r="M10" t="n">
-        <v>1250.734748835517</v>
+        <v>1292.433105213328</v>
       </c>
       <c r="N10" t="n">
-        <v>1250.734748835517</v>
+        <v>1734.691908370973</v>
       </c>
       <c r="O10" t="n">
-        <v>1670.403998061299</v>
+        <v>2154.361157596754</v>
       </c>
       <c r="P10" t="n">
-        <v>1670.403998061299</v>
+        <v>2501.868051567096</v>
       </c>
       <c r="Q10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="R10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="S10" t="n">
-        <v>1838.596772925631</v>
+        <v>2670.060826431428</v>
       </c>
       <c r="T10" t="n">
-        <v>1838.596772925631</v>
+        <v>2634.504334502149</v>
       </c>
       <c r="U10" t="n">
-        <v>1560.163772178737</v>
+        <v>2356.071333755254</v>
       </c>
       <c r="V10" t="n">
-        <v>1273.208264049167</v>
+        <v>2069.115825625685</v>
       </c>
       <c r="W10" t="n">
-        <v>1273.208264049167</v>
+        <v>1797.089421211977</v>
       </c>
       <c r="X10" t="n">
-        <v>1027.816509382579</v>
+        <v>1551.697666545389</v>
       </c>
       <c r="Y10" t="n">
-        <v>1027.816509382579</v>
+        <v>1324.277995859497</v>
       </c>
     </row>
     <row r="11">
@@ -5015,19 +5015,19 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2511.879170851551</v>
+        <v>2252.656868168568</v>
       </c>
       <c r="C11" t="n">
-        <v>2073.736698034975</v>
+        <v>1814.514395351991</v>
       </c>
       <c r="D11" t="n">
-        <v>1637.826913209419</v>
+        <v>1378.604610526436</v>
       </c>
       <c r="E11" t="n">
-        <v>1215.548181578287</v>
+        <v>944.829865684731</v>
       </c>
       <c r="F11" t="n">
-        <v>787.680751987495</v>
+        <v>516.9624360939388</v>
       </c>
       <c r="G11" t="n">
         <v>386.2829206107589</v>
@@ -5039,16 +5039,16 @@
         <v>96.73597668111519</v>
       </c>
       <c r="J11" t="n">
-        <v>403.2461837293691</v>
+        <v>531.9906641340331</v>
       </c>
       <c r="K11" t="n">
-        <v>1237.596475687547</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L11" t="n">
-        <v>2312.656441940406</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="M11" t="n">
-        <v>2312.656441940406</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="N11" t="n">
         <v>2312.656441940406</v>
@@ -5072,19 +5072,19 @@
         <v>4533.079733112635</v>
       </c>
       <c r="U11" t="n">
-        <v>4533.079733112635</v>
+        <v>4273.857430429652</v>
       </c>
       <c r="V11" t="n">
-        <v>4170.462783046461</v>
+        <v>3911.240480363478</v>
       </c>
       <c r="W11" t="n">
-        <v>3765.607328457495</v>
+        <v>3506.385025774512</v>
       </c>
       <c r="X11" t="n">
-        <v>3346.464865036806</v>
+        <v>3087.242562353822</v>
       </c>
       <c r="Y11" t="n">
-        <v>2938.178741336459</v>
+        <v>2678.956438653476</v>
       </c>
     </row>
     <row r="12">
@@ -5121,19 +5121,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O12" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P12" t="n">
         <v>1102.064021433509</v>
@@ -5173,25 +5173,25 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>947.2320137580464</v>
+        <v>1175.794137292996</v>
       </c>
       <c r="C13" t="n">
-        <v>774.6703022412713</v>
+        <v>1003.232425776221</v>
       </c>
       <c r="D13" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777441</v>
       </c>
       <c r="E13" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284814</v>
       </c>
       <c r="F13" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G13" t="n">
-        <v>96.73597668111519</v>
+        <v>325.2981002160654</v>
       </c>
       <c r="H13" t="n">
-        <v>96.73597668111519</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I13" t="n">
         <v>96.73597668111519</v>
@@ -5221,28 +5221,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R13" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S13" t="n">
-        <v>2695.15641754123</v>
+        <v>2651.692136662472</v>
       </c>
       <c r="T13" t="n">
-        <v>2449.276971119686</v>
+        <v>2405.812690240927</v>
       </c>
       <c r="U13" t="n">
-        <v>2170.843970372791</v>
+        <v>2127.379689494032</v>
       </c>
       <c r="V13" t="n">
-        <v>1883.888462243221</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="W13" t="n">
-        <v>1611.862057829513</v>
+        <v>1840.424181364463</v>
       </c>
       <c r="X13" t="n">
-        <v>1366.470303162925</v>
+        <v>1595.032426697875</v>
       </c>
       <c r="Y13" t="n">
-        <v>1139.050632477034</v>
+        <v>1367.612756011983</v>
       </c>
     </row>
     <row r="14">
@@ -5252,16 +5252,16 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>2511.879170851551</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C14" t="n">
-        <v>2073.736698034974</v>
+        <v>2084.815921872688</v>
       </c>
       <c r="D14" t="n">
-        <v>1637.826913209419</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E14" t="n">
-        <v>1204.052168367714</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F14" t="n">
         <v>787.263962614635</v>
@@ -5270,10 +5270,10 @@
         <v>385.8661312378989</v>
       </c>
       <c r="H14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I14" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J14" t="n">
         <v>531.9906641340331</v>
@@ -5282,46 +5282,46 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L14" t="n">
-        <v>2441.40092234507</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="M14" t="n">
-        <v>3140.966316773803</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="N14" t="n">
-        <v>3140.966316773803</v>
+        <v>2312.656441940405</v>
       </c>
       <c r="O14" t="n">
-        <v>4121.145983344109</v>
+        <v>3292.836108510712</v>
       </c>
       <c r="P14" t="n">
-        <v>4121.145983344109</v>
+        <v>4121.145983344108</v>
       </c>
       <c r="Q14" t="n">
-        <v>4667.644769302703</v>
+        <v>4667.644769302702</v>
       </c>
       <c r="R14" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S14" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T14" t="n">
-        <v>4533.079733112635</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U14" t="n">
-        <v>4533.079733112635</v>
+        <v>4357.509304245814</v>
       </c>
       <c r="V14" t="n">
-        <v>4170.462783046461</v>
+        <v>3994.89235417964</v>
       </c>
       <c r="W14" t="n">
-        <v>3765.607328457495</v>
+        <v>3776.686552295208</v>
       </c>
       <c r="X14" t="n">
-        <v>3346.464865036806</v>
+        <v>3357.544088874519</v>
       </c>
       <c r="Y14" t="n">
-        <v>2938.178741336459</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="15">
@@ -5349,7 +5349,7 @@
         <v>138.4716288649027</v>
       </c>
       <c r="H15" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I15" t="n">
         <v>122.7996498415728</v>
@@ -5358,19 +5358,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="L15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="M15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="N15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="O15" t="n">
-        <v>1102.064021433509</v>
+        <v>447.3579748077851</v>
       </c>
       <c r="P15" t="n">
         <v>1102.064021433509</v>
@@ -5410,31 +5410,31 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1175.794137292997</v>
+        <v>1084.662814845622</v>
       </c>
       <c r="C16" t="n">
-        <v>1003.232425776221</v>
+        <v>912.1011033288469</v>
       </c>
       <c r="D16" t="n">
-        <v>837.3544329777442</v>
+        <v>746.2231105303697</v>
       </c>
       <c r="E16" t="n">
-        <v>667.5964292284815</v>
+        <v>576.4651067811069</v>
       </c>
       <c r="F16" t="n">
-        <v>490.8893751902377</v>
+        <v>399.7580527428631</v>
       </c>
       <c r="G16" t="n">
-        <v>325.2981002160653</v>
+        <v>234.1667777686907</v>
       </c>
       <c r="H16" t="n">
         <v>185.3959259064399</v>
       </c>
       <c r="I16" t="n">
-        <v>96.73597668111519</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="J16" t="n">
-        <v>183.3156618458051</v>
+        <v>183.315661845805</v>
       </c>
       <c r="K16" t="n">
         <v>458.0741164169406</v>
@@ -5458,28 +5458,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R16" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S16" t="n">
-        <v>2532.736396587283</v>
+        <v>2554.154217881911</v>
       </c>
       <c r="T16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="U16" t="n">
-        <v>2286.856950165738</v>
+        <v>2308.274771460367</v>
       </c>
       <c r="V16" t="n">
-        <v>2112.450585778171</v>
+        <v>2021.319263330797</v>
       </c>
       <c r="W16" t="n">
-        <v>1840.424181364463</v>
+        <v>1749.292858917088</v>
       </c>
       <c r="X16" t="n">
-        <v>1595.032426697876</v>
+        <v>1503.901104250501</v>
       </c>
       <c r="Y16" t="n">
-        <v>1367.612756011984</v>
+        <v>1276.481433564609</v>
       </c>
     </row>
     <row r="17">
@@ -5489,25 +5489,25 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>2336.30874198473</v>
+        <v>2522.958394689264</v>
       </c>
       <c r="C17" t="n">
-        <v>2085.232711245547</v>
+        <v>2084.815921872687</v>
       </c>
       <c r="D17" t="n">
-        <v>1649.322926419992</v>
+        <v>1648.906137047132</v>
       </c>
       <c r="E17" t="n">
-        <v>1215.548181578287</v>
+        <v>1215.131392205427</v>
       </c>
       <c r="F17" t="n">
-        <v>787.6807519874947</v>
+        <v>787.263962614635</v>
       </c>
       <c r="G17" t="n">
-        <v>386.2829206107585</v>
+        <v>385.8661312378989</v>
       </c>
       <c r="H17" t="n">
-        <v>97.15276605397517</v>
+        <v>96.73597668111518</v>
       </c>
       <c r="I17" t="n">
         <v>96.73597668111518</v>
@@ -5516,25 +5516,25 @@
         <v>531.9906641340331</v>
       </c>
       <c r="K17" t="n">
-        <v>1237.596475687546</v>
+        <v>1366.340956092211</v>
       </c>
       <c r="L17" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M17" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="N17" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O17" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P17" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q17" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R17" t="n">
         <v>4836.798834055759</v>
@@ -5555,10 +5555,10 @@
         <v>3590.036899590674</v>
       </c>
       <c r="X17" t="n">
-        <v>3170.894436169985</v>
+        <v>3357.544088874518</v>
       </c>
       <c r="Y17" t="n">
-        <v>2762.608312469638</v>
+        <v>2949.257965174172</v>
       </c>
     </row>
     <row r="18">
@@ -5595,19 +5595,19 @@
         <v>447.3579748077851</v>
       </c>
       <c r="K18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="L18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="M18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="N18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="O18" t="n">
-        <v>447.3579748077851</v>
+        <v>1102.064021433509</v>
       </c>
       <c r="P18" t="n">
         <v>1102.064021433509</v>
@@ -5647,25 +5647,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>965.4711828007308</v>
+        <v>1030.691439225644</v>
       </c>
       <c r="C19" t="n">
-        <v>792.9094712839558</v>
+        <v>858.1297277088695</v>
       </c>
       <c r="D19" t="n">
-        <v>627.0314784854789</v>
+        <v>692.2517349103925</v>
       </c>
       <c r="E19" t="n">
-        <v>457.2734747362162</v>
+        <v>522.4937311611297</v>
       </c>
       <c r="F19" t="n">
-        <v>280.5664206979724</v>
+        <v>345.786677122886</v>
       </c>
       <c r="G19" t="n">
-        <v>236.6381509907407</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H19" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I19" t="n">
         <v>96.73597668111518</v>
@@ -5695,28 +5695,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R19" t="n">
-        <v>2713.395586583915</v>
+        <v>2691.977765289287</v>
       </c>
       <c r="S19" t="n">
-        <v>2713.395586583915</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="T19" t="n">
-        <v>2467.51614016237</v>
+        <v>2532.736396587283</v>
       </c>
       <c r="U19" t="n">
-        <v>2189.083139415475</v>
+        <v>2254.303395840389</v>
       </c>
       <c r="V19" t="n">
-        <v>1902.127631285906</v>
+        <v>1967.347887710819</v>
       </c>
       <c r="W19" t="n">
-        <v>1630.101226872197</v>
+        <v>1695.321483297111</v>
       </c>
       <c r="X19" t="n">
-        <v>1384.70947220561</v>
+        <v>1449.929728630523</v>
       </c>
       <c r="Y19" t="n">
-        <v>1157.289801519718</v>
+        <v>1222.510057944632</v>
       </c>
     </row>
     <row r="20">
@@ -5738,13 +5738,13 @@
         <v>1215.548181578287</v>
       </c>
       <c r="F20" t="n">
-        <v>787.680751987495</v>
+        <v>787.6807519874951</v>
       </c>
       <c r="G20" t="n">
-        <v>386.2829206107589</v>
+        <v>386.282920610759</v>
       </c>
       <c r="H20" t="n">
-        <v>97.15276605397517</v>
+        <v>97.15276605397526</v>
       </c>
       <c r="I20" t="n">
         <v>96.73597668111518</v>
@@ -5756,37 +5756,37 @@
         <v>1366.340956092211</v>
       </c>
       <c r="L20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="M20" t="n">
-        <v>2312.656441940405</v>
+        <v>2441.40092234507</v>
       </c>
       <c r="N20" t="n">
-        <v>2312.656441940405</v>
+        <v>2481.810506693462</v>
       </c>
       <c r="O20" t="n">
-        <v>3292.836108510712</v>
+        <v>3461.990173263768</v>
       </c>
       <c r="P20" t="n">
-        <v>4121.145983344108</v>
+        <v>4290.300048097164</v>
       </c>
       <c r="Q20" t="n">
-        <v>4667.644769302702</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="R20" t="n">
         <v>4836.798834055759</v>
       </c>
       <c r="S20" t="n">
-        <v>4753.146960239596</v>
+        <v>4836.798834055759</v>
       </c>
       <c r="T20" t="n">
-        <v>4533.079733112634</v>
+        <v>4616.731606928797</v>
       </c>
       <c r="U20" t="n">
-        <v>4273.857430429651</v>
+        <v>4544.575746323208</v>
       </c>
       <c r="V20" t="n">
-        <v>3911.240480363477</v>
+        <v>4181.958796257035</v>
       </c>
       <c r="W20" t="n">
         <v>3777.103341668068</v>
@@ -5884,25 +5884,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>944.0533615061029</v>
+        <v>1009.916144494519</v>
       </c>
       <c r="C22" t="n">
-        <v>771.4916499893278</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="D22" t="n">
-        <v>608.792309442794</v>
+        <v>837.3544329777443</v>
       </c>
       <c r="E22" t="n">
-        <v>439.0343056935313</v>
+        <v>667.5964292284816</v>
       </c>
       <c r="F22" t="n">
-        <v>262.3272516552875</v>
+        <v>490.8893751902378</v>
       </c>
       <c r="G22" t="n">
-        <v>96.73597668111518</v>
+        <v>325.2981002160653</v>
       </c>
       <c r="H22" t="n">
-        <v>96.73597668111518</v>
+        <v>185.3959259064399</v>
       </c>
       <c r="I22" t="n">
         <v>96.73597668111518</v>
@@ -5932,28 +5932,28 @@
         <v>2713.395586583915</v>
       </c>
       <c r="R22" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="S22" t="n">
-        <v>2691.977765289286</v>
+        <v>2713.395586583915</v>
       </c>
       <c r="T22" t="n">
-        <v>2446.098318867741</v>
+        <v>2511.961101856159</v>
       </c>
       <c r="U22" t="n">
-        <v>2167.665318120847</v>
+        <v>2233.528101109264</v>
       </c>
       <c r="V22" t="n">
-        <v>1880.709809991277</v>
+        <v>1946.572592979694</v>
       </c>
       <c r="W22" t="n">
-        <v>1608.683405577569</v>
+        <v>1674.546188565986</v>
       </c>
       <c r="X22" t="n">
-        <v>1363.291650910982</v>
+        <v>1429.154433899398</v>
       </c>
       <c r="Y22" t="n">
-        <v>1135.87198022509</v>
+        <v>1201.734763213507</v>
       </c>
     </row>
     <row r="23">
@@ -5996,7 +5996,7 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M23" t="n">
-        <v>2588.899621423627</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N23" t="n">
         <v>2588.899621423627</v>
@@ -6121,25 +6121,25 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>1077.292364523333</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C25" t="n">
-        <v>904.7306530065581</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D25" t="n">
-        <v>738.8526602080808</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E25" t="n">
-        <v>569.094656458818</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F25" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G25" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H25" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I25" t="n">
         <v>102.2608402707796</v>
@@ -6169,28 +6169,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R25" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S25" t="n">
-        <v>2538.261260176947</v>
+        <v>2700.681281130895</v>
       </c>
       <c r="T25" t="n">
-        <v>2292.381813755403</v>
+        <v>2454.80183470935</v>
       </c>
       <c r="U25" t="n">
-        <v>2013.948813008508</v>
+        <v>2176.368833962455</v>
       </c>
       <c r="V25" t="n">
-        <v>2013.948813008508</v>
+        <v>1889.413325832885</v>
       </c>
       <c r="W25" t="n">
-        <v>1741.922408594799</v>
+        <v>1617.386921419177</v>
       </c>
       <c r="X25" t="n">
-        <v>1496.530653928212</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y25" t="n">
-        <v>1269.11098324232</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="26">
@@ -6227,13 +6227,13 @@
         <v>102.2608402707796</v>
       </c>
       <c r="K26" t="n">
-        <v>557.2627364873769</v>
+        <v>936.6111322289576</v>
       </c>
       <c r="L26" t="n">
-        <v>1632.322702740236</v>
+        <v>2011.671098481817</v>
       </c>
       <c r="M26" t="n">
-        <v>1632.322702740236</v>
+        <v>2758.053686176683</v>
       </c>
       <c r="N26" t="n">
         <v>2758.053686176683</v>
@@ -6300,10 +6300,10 @@
         <v>102.2608402707796</v>
       </c>
       <c r="I27" t="n">
-        <v>102.2970399865835</v>
+        <v>128.3245134312372</v>
       </c>
       <c r="J27" t="n">
-        <v>426.8553649527958</v>
+        <v>452.8828383974496</v>
       </c>
       <c r="K27" t="n">
         <v>1107.588885023173</v>
@@ -6358,25 +6358,25 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>1008.757289365886</v>
+        <v>790.336856393764</v>
       </c>
       <c r="C28" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D28" t="n">
-        <v>842.8792965674086</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E28" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F28" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G28" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H28" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I28" t="n">
         <v>102.2608402707796</v>
@@ -6409,25 +6409,25 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S28" t="n">
-        <v>2538.261260176947</v>
+        <v>2538.261260176948</v>
       </c>
       <c r="T28" t="n">
         <v>2292.381813755403</v>
       </c>
       <c r="U28" t="n">
-        <v>2232.36924598063</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V28" t="n">
-        <v>1945.413737851061</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W28" t="n">
-        <v>1673.387333437352</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X28" t="n">
-        <v>1427.995578770765</v>
+        <v>1209.575145798643</v>
       </c>
       <c r="Y28" t="n">
-        <v>1200.575908084873</v>
+        <v>982.1554751127512</v>
       </c>
     </row>
     <row r="29">
@@ -6467,10 +6467,10 @@
         <v>1371.865819681875</v>
       </c>
       <c r="L29" t="n">
-        <v>2446.925785934734</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="M29" t="n">
-        <v>2446.925785934734</v>
+        <v>1463.16863798718</v>
       </c>
       <c r="N29" t="n">
         <v>2588.899621423627</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1083.781082102101</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C31" t="n">
-        <v>911.2193705853258</v>
+        <v>780.1951658309357</v>
       </c>
       <c r="D31" t="n">
-        <v>745.3413777868484</v>
+        <v>614.3171730324584</v>
       </c>
       <c r="E31" t="n">
-        <v>575.5833740375857</v>
+        <v>444.5591692831957</v>
       </c>
       <c r="F31" t="n">
-        <v>398.8763199993419</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G31" t="n">
-        <v>233.2850450251696</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H31" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I31" t="n">
         <v>102.2608402707796</v>
@@ -6649,22 +6649,22 @@
         <v>2559.679081471576</v>
       </c>
       <c r="T31" t="n">
-        <v>2313.799635050032</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U31" t="n">
-        <v>2035.366634303137</v>
+        <v>2035.366634303136</v>
       </c>
       <c r="V31" t="n">
         <v>1748.411126173567</v>
       </c>
       <c r="W31" t="n">
-        <v>1748.411126173567</v>
+        <v>1476.384721759858</v>
       </c>
       <c r="X31" t="n">
-        <v>1503.01937150698</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y31" t="n">
-        <v>1275.599700821088</v>
+        <v>1003.573296407379</v>
       </c>
     </row>
     <row r="32">
@@ -6698,28 +6698,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J32" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K32" t="n">
-        <v>775.0235620688178</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L32" t="n">
-        <v>1850.083528321677</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M32" t="n">
-        <v>3007.131363532228</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N32" t="n">
-        <v>4132.862346968675</v>
+        <v>2588.899621423627</v>
       </c>
       <c r="O32" t="n">
-        <v>5113.042013538981</v>
+        <v>3569.079287993933</v>
       </c>
       <c r="P32" t="n">
-        <v>5113.042013538981</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q32" t="n">
-        <v>5113.04201353898</v>
+        <v>4943.887948785924</v>
       </c>
       <c r="R32" t="n">
         <v>5113.04201353898</v>
@@ -6832,22 +6832,22 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>811.7546776883923</v>
+        <v>1092.659051657336</v>
       </c>
       <c r="C34" t="n">
-        <v>639.1929661716173</v>
+        <v>920.0973401405612</v>
       </c>
       <c r="D34" t="n">
-        <v>473.3149733731399</v>
+        <v>754.2193473420839</v>
       </c>
       <c r="E34" t="n">
-        <v>303.5569696238772</v>
+        <v>584.4613435928212</v>
       </c>
       <c r="F34" t="n">
-        <v>126.8499155856334</v>
+        <v>407.7542895545774</v>
       </c>
       <c r="G34" t="n">
-        <v>102.2608402707796</v>
+        <v>242.1630145804051</v>
       </c>
       <c r="H34" t="n">
         <v>102.2608402707796</v>
@@ -6880,28 +6880,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R34" t="n">
-        <v>2718.92045017358</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S34" t="n">
-        <v>2559.679081471576</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="T34" t="n">
-        <v>2313.799635050032</v>
+        <v>2594.704009018976</v>
       </c>
       <c r="U34" t="n">
-        <v>2035.366634303137</v>
+        <v>2316.271008272081</v>
       </c>
       <c r="V34" t="n">
-        <v>1748.411126173567</v>
+        <v>2029.315500142511</v>
       </c>
       <c r="W34" t="n">
-        <v>1476.384721759859</v>
+        <v>1757.289095728803</v>
       </c>
       <c r="X34" t="n">
-        <v>1230.992967093272</v>
+        <v>1511.897341062215</v>
       </c>
       <c r="Y34" t="n">
-        <v>1003.57329640738</v>
+        <v>1284.477670376324</v>
       </c>
     </row>
     <row r="35">
@@ -6911,25 +6911,25 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>2528.900047651789</v>
+        <v>2528.900047651788</v>
       </c>
       <c r="C35" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835211</v>
       </c>
       <c r="D35" t="n">
-        <v>1654.847790009657</v>
+        <v>1654.847790009655</v>
       </c>
       <c r="E35" t="n">
-        <v>1221.073045167952</v>
+        <v>1221.073045167951</v>
       </c>
       <c r="F35" t="n">
-        <v>793.2056155771595</v>
+        <v>793.2056155771594</v>
       </c>
       <c r="G35" t="n">
         <v>391.8077842004233</v>
       </c>
       <c r="H35" t="n">
-        <v>102.6776296436396</v>
+        <v>102.6776296436395</v>
       </c>
       <c r="I35" t="n">
         <v>102.2608402707796</v>
@@ -6944,13 +6944,13 @@
         <v>2446.925785934734</v>
       </c>
       <c r="M35" t="n">
-        <v>2446.925785934734</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="N35" t="n">
-        <v>2588.899621423627</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="O35" t="n">
-        <v>3569.079287993933</v>
+        <v>3603.973621145286</v>
       </c>
       <c r="P35" t="n">
         <v>4397.38916282733</v>
@@ -7069,25 +7069,25 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>1017.756527079655</v>
+        <v>811.7546776883923</v>
       </c>
       <c r="C37" t="n">
-        <v>1008.757289365886</v>
+        <v>639.1929661716173</v>
       </c>
       <c r="D37" t="n">
-        <v>842.8792965674087</v>
+        <v>473.3149733731399</v>
       </c>
       <c r="E37" t="n">
-        <v>673.1212928181459</v>
+        <v>303.5569696238772</v>
       </c>
       <c r="F37" t="n">
-        <v>496.4142387799021</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="G37" t="n">
-        <v>330.8229638057297</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="H37" t="n">
-        <v>190.9207894961043</v>
+        <v>126.8499155856334</v>
       </c>
       <c r="I37" t="n">
         <v>102.2608402707796</v>
@@ -7117,28 +7117,28 @@
         <v>2718.920450173579</v>
       </c>
       <c r="R37" t="n">
-        <v>2697.502628878951</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="S37" t="n">
-        <v>2538.261260176947</v>
+        <v>2559.679081471576</v>
       </c>
       <c r="T37" t="n">
-        <v>2292.381813755403</v>
+        <v>2313.799635050031</v>
       </c>
       <c r="U37" t="n">
-        <v>2013.948813008508</v>
+        <v>2035.366634303137</v>
       </c>
       <c r="V37" t="n">
-        <v>1726.993304878938</v>
+        <v>1748.411126173567</v>
       </c>
       <c r="W37" t="n">
-        <v>1454.96690046523</v>
+        <v>1476.384721759859</v>
       </c>
       <c r="X37" t="n">
-        <v>1209.575145798642</v>
+        <v>1230.992967093271</v>
       </c>
       <c r="Y37" t="n">
-        <v>1209.575145798642</v>
+        <v>1003.57329640738</v>
       </c>
     </row>
     <row r="38">
@@ -7172,43 +7172,43 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J38" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K38" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L38" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M38" t="n">
-        <v>2334.36864173419</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="N38" t="n">
-        <v>3460.099625170637</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O38" t="n">
-        <v>4440.279291740943</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P38" t="n">
-        <v>4440.279291740943</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q38" t="n">
-        <v>4943.887948785924</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R38" t="n">
-        <v>5113.04201353898</v>
+        <v>5113.042013538981</v>
       </c>
       <c r="S38" t="n">
-        <v>5029.390139722817</v>
+        <v>5029.390139722818</v>
       </c>
       <c r="T38" t="n">
-        <v>4809.322912595856</v>
+        <v>4809.322912595857</v>
       </c>
       <c r="U38" t="n">
-        <v>4550.100609912873</v>
+        <v>4550.100609912874</v>
       </c>
       <c r="V38" t="n">
-        <v>4187.483659846699</v>
+        <v>4187.4836598467</v>
       </c>
       <c r="W38" t="n">
         <v>3782.628205257733</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1181.319000882661</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C40" t="n">
-        <v>1008.757289365886</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D40" t="n">
-        <v>842.8792965674088</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E40" t="n">
-        <v>673.1212928181459</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F40" t="n">
-        <v>496.4142387799021</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G40" t="n">
-        <v>330.8229638057298</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H40" t="n">
-        <v>190.9207894961043</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="I40" t="n">
         <v>102.2608402707796</v>
@@ -7357,7 +7357,7 @@
         <v>2697.502628878951</v>
       </c>
       <c r="S40" t="n">
-        <v>2538.261260176948</v>
+        <v>2538.261260176947</v>
       </c>
       <c r="T40" t="n">
         <v>2292.381813755403</v>
@@ -7366,16 +7366,16 @@
         <v>2013.948813008508</v>
       </c>
       <c r="V40" t="n">
-        <v>1726.993304878939</v>
+        <v>1726.993304878938</v>
       </c>
       <c r="W40" t="n">
-        <v>1654.13042623514</v>
+        <v>1454.96690046523</v>
       </c>
       <c r="X40" t="n">
-        <v>1408.738671568553</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y40" t="n">
-        <v>1181.319000882661</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="41">
@@ -7388,7 +7388,7 @@
         <v>2528.900047651789</v>
       </c>
       <c r="C41" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D41" t="n">
         <v>1654.847790009657</v>
@@ -7409,28 +7409,28 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J41" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K41" t="n">
-        <v>936.6111322289576</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L41" t="n">
-        <v>2011.671098481817</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M41" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N41" t="n">
-        <v>3168.718933692368</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="O41" t="n">
-        <v>4148.898600262674</v>
+        <v>3569.079287993934</v>
       </c>
       <c r="P41" t="n">
-        <v>4977.20847509607</v>
+        <v>4397.38916282733</v>
       </c>
       <c r="Q41" t="n">
-        <v>5113.042013538981</v>
+        <v>4943.887948785925</v>
       </c>
       <c r="R41" t="n">
         <v>5113.042013538981</v>
@@ -7448,13 +7448,13 @@
         <v>4187.4836598467</v>
       </c>
       <c r="W41" t="n">
-        <v>3782.628205257732</v>
+        <v>3782.628205257733</v>
       </c>
       <c r="X41" t="n">
-        <v>3363.485741837043</v>
+        <v>3363.485741837044</v>
       </c>
       <c r="Y41" t="n">
-        <v>2955.199618136696</v>
+        <v>2955.199618136697</v>
       </c>
     </row>
     <row r="42">
@@ -7543,22 +7543,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>1068.769857140659</v>
+        <v>952.7568773477108</v>
       </c>
       <c r="C43" t="n">
-        <v>896.2081456238835</v>
+        <v>780.1951658309358</v>
       </c>
       <c r="D43" t="n">
-        <v>730.3301528254062</v>
+        <v>614.3171730324585</v>
       </c>
       <c r="E43" t="n">
-        <v>560.5721490761434</v>
+        <v>444.5591692831958</v>
       </c>
       <c r="F43" t="n">
-        <v>407.7542895545774</v>
+        <v>267.852115244952</v>
       </c>
       <c r="G43" t="n">
-        <v>242.1630145804051</v>
+        <v>102.2608402707796</v>
       </c>
       <c r="H43" t="n">
         <v>102.2608402707796</v>
@@ -7600,19 +7600,19 @@
         <v>2292.381813755403</v>
       </c>
       <c r="U43" t="n">
-        <v>2292.381813755403</v>
+        <v>2013.948813008509</v>
       </c>
       <c r="V43" t="n">
-        <v>2005.426305625833</v>
+        <v>1726.993304878939</v>
       </c>
       <c r="W43" t="n">
-        <v>1733.399901212125</v>
+        <v>1454.966900465231</v>
       </c>
       <c r="X43" t="n">
-        <v>1488.008146545538</v>
+        <v>1371.99516675259</v>
       </c>
       <c r="Y43" t="n">
-        <v>1260.588475859646</v>
+        <v>1144.575496066698</v>
       </c>
     </row>
     <row r="44">
@@ -7625,7 +7625,7 @@
         <v>2528.90004765179</v>
       </c>
       <c r="C44" t="n">
-        <v>2090.757574835212</v>
+        <v>2090.757574835213</v>
       </c>
       <c r="D44" t="n">
         <v>1654.847790009657</v>
@@ -7646,16 +7646,16 @@
         <v>102.2608402707796</v>
       </c>
       <c r="J44" t="n">
-        <v>102.2608402707796</v>
+        <v>537.5155277236975</v>
       </c>
       <c r="K44" t="n">
-        <v>102.2608402707796</v>
+        <v>1371.865819681875</v>
       </c>
       <c r="L44" t="n">
-        <v>1177.320806523639</v>
+        <v>2446.925785934734</v>
       </c>
       <c r="M44" t="n">
-        <v>1463.168637987181</v>
+        <v>2588.899621423628</v>
       </c>
       <c r="N44" t="n">
         <v>2588.899621423628</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>1092.659051657336</v>
+        <v>1181.319000882661</v>
       </c>
       <c r="C46" t="n">
-        <v>920.0973401405612</v>
+        <v>1008.757289365886</v>
       </c>
       <c r="D46" t="n">
-        <v>754.2193473420839</v>
+        <v>842.8792965674086</v>
       </c>
       <c r="E46" t="n">
-        <v>584.4613435928212</v>
+        <v>673.1212928181459</v>
       </c>
       <c r="F46" t="n">
-        <v>407.7542895545774</v>
+        <v>496.4142387799021</v>
       </c>
       <c r="G46" t="n">
-        <v>242.1630145804051</v>
+        <v>330.8229638057298</v>
       </c>
       <c r="H46" t="n">
-        <v>102.2608402707796</v>
+        <v>190.9207894961043</v>
       </c>
       <c r="I46" t="n">
         <v>102.2608402707796</v>
@@ -7816,40 +7816,40 @@
         <v>1341.292728955479</v>
       </c>
       <c r="N46" t="n">
-        <v>1783.551532113127</v>
+        <v>1783.551532113124</v>
       </c>
       <c r="O46" t="n">
-        <v>2203.220781338908</v>
+        <v>2203.220781338905</v>
       </c>
       <c r="P46" t="n">
-        <v>2550.72767530925</v>
+        <v>2550.727675309247</v>
       </c>
       <c r="Q46" t="n">
-        <v>2718.920450173582</v>
+        <v>2718.920450173579</v>
       </c>
       <c r="R46" t="n">
-        <v>2718.920450173582</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="S46" t="n">
-        <v>2559.679081471579</v>
+        <v>2697.502628878951</v>
       </c>
       <c r="T46" t="n">
-        <v>2367.284338333083</v>
+        <v>2451.623182457407</v>
       </c>
       <c r="U46" t="n">
-        <v>2088.851337586188</v>
+        <v>2173.190181710512</v>
       </c>
       <c r="V46" t="n">
-        <v>1801.895829456619</v>
+        <v>1886.234673580942</v>
       </c>
       <c r="W46" t="n">
-        <v>1529.869425042911</v>
+        <v>1614.208269167234</v>
       </c>
       <c r="X46" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
       <c r="Y46" t="n">
-        <v>1284.477670376323</v>
+        <v>1373.137619601648</v>
       </c>
     </row>
   </sheetData>
@@ -7976,13 +7976,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803858</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -7991,13 +7991,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697543</v>
@@ -8058,10 +8058,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8070,13 +8070,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -8140,22 +8140,22 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>404.0898091700262</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8213,10 +8213,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -8228,16 +8228,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -8295,10 +8295,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -8313,7 +8313,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -8371,19 +8371,19 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
         <v>423.9083325512944</v>
@@ -8392,7 +8392,7 @@
         <v>351.0170646165068</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8453,7 +8453,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -8465,16 +8465,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0775086564016</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -8532,7 +8532,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -8547,10 +8547,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -8614,19 +8614,19 @@
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>401.5878508505915</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821538</v>
@@ -8687,19 +8687,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831379</v>
@@ -8769,22 +8769,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -8930,10 +8930,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M14" t="n">
-        <v>706.6317115441739</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -8942,7 +8942,7 @@
         <v>990.0804712831379</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157522</v>
@@ -9006,22 +9006,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -9164,13 +9164,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>712.7331429833466</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -9185,7 +9185,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R17" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -9243,7 +9243,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -9258,7 +9258,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -9404,13 +9404,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831379</v>
@@ -9422,7 +9422,7 @@
         <v>552.0189757157522</v>
       </c>
       <c r="R20" t="n">
-        <v>170.8626916697543</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -9644,10 +9644,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831379</v>
@@ -9875,16 +9875,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831379</v>
@@ -9948,13 +9948,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -10115,13 +10115,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831379</v>
@@ -10346,31 +10346,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -10592,16 +10592,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831379</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458549</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157522</v>
@@ -10820,28 +10820,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831379</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458549</v>
       </c>
       <c r="Q38" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R38" t="n">
         <v>170.8626916697543</v>
@@ -11057,7 +11057,7 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
         <v>842.7780726850283</v>
@@ -11066,7 +11066,7 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -11078,10 +11078,10 @@
         <v>836.6766412458549</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.205594386779</v>
+        <v>552.0189757157522</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.8626916697543</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -11294,19 +11294,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>288.7351832965069</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831379</v>
@@ -23264,13 +23264,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>11.38105307846763</v>
+        <v>0</v>
       </c>
       <c r="F11" t="n">
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>268.0111327346208</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -23312,7 +23312,7 @@
         <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -23431,10 +23431,10 @@
         <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,10 +23461,10 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>139.5921776627262</v>
+        <v>117.7661826744361</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
@@ -23476,7 +23476,7 @@
         <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>0</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X13" t="n">
         <v>0</v>
@@ -23504,7 +23504,7 @@
         <v>0</v>
       </c>
       <c r="F14" t="n">
-        <v>10.96843159933634</v>
+        <v>0</v>
       </c>
       <c r="G14" t="n">
         <v>0</v>
@@ -23543,19 +23543,19 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>184.7831561774886</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23668,7 +23668,7 @@
         <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>90.22000922290056</v>
       </c>
       <c r="I16" t="n">
         <v>0</v>
@@ -23698,7 +23698,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
@@ -23710,7 +23710,7 @@
         <v>275.6486707394257</v>
       </c>
       <c r="V16" t="n">
-        <v>111.423652304583</v>
+        <v>0</v>
       </c>
       <c r="W16" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>185.1957776566199</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
         <v>0</v>
@@ -23750,7 +23750,7 @@
         <v>0</v>
       </c>
       <c r="I17" t="n">
-        <v>0</v>
+        <v>0.4126214791313976</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -23780,7 +23780,7 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>82.81535507800143</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T17" t="n">
         <v>0</v>
@@ -23795,7 +23795,7 @@
         <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>184.7831561774881</v>
       </c>
       <c r="Y17" t="n">
         <v>0</v>
@@ -23902,13 +23902,13 @@
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>120.4463752142712</v>
+        <v>143.6516710866782</v>
       </c>
       <c r="H19" t="n">
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23935,13 +23935,13 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T19" t="n">
-        <v>0</v>
+        <v>243.4206519573293</v>
       </c>
       <c r="U19" t="n">
         <v>0</v>
@@ -24017,19 +24017,19 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>0</v>
+        <v>82.81535507800136</v>
       </c>
       <c r="T20" t="n">
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>185.1957776566205</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>268.0111327346212</v>
+        <v>0</v>
       </c>
       <c r="X20" t="n">
         <v>0</v>
@@ -24130,7 +24130,7 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>3.146865729424121</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
@@ -24142,10 +24142,10 @@
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24172,13 +24172,13 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S22" t="n">
         <v>157.6489550149833</v>
       </c>
       <c r="T22" t="n">
-        <v>0</v>
+        <v>44.00051207685092</v>
       </c>
       <c r="U22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>102.9863699957346</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
         <v>0</v>
       </c>
       <c r="H25" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,10 +24409,10 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S25" t="n">
-        <v>0</v>
+        <v>139.5921776627253</v>
       </c>
       <c r="T25" t="n">
         <v>0</v>
@@ -24421,7 +24421,7 @@
         <v>0</v>
       </c>
       <c r="V25" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W25" t="n">
         <v>0</v>
@@ -24601,7 +24601,7 @@
         <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>170.8360944016073</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="D28" t="n">
         <v>0</v>
@@ -24616,10 +24616,10 @@
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24655,7 +24655,7 @@
         <v>0</v>
       </c>
       <c r="U28" t="n">
-        <v>216.2362286424008</v>
+        <v>0</v>
       </c>
       <c r="V28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>139.5921776627254</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>96.56253959275456</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25087,10 +25087,10 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>139.5921776627254</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
         <v>87.77334973307141</v>
@@ -25123,10 +25123,10 @@
         <v>21.20364308168184</v>
       </c>
       <c r="S34" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>120.4463752142715</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>161.9268490649758</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25324,13 +25324,13 @@
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H37" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I37" t="n">
-        <v>0</v>
+        <v>63.43016517136616</v>
       </c>
       <c r="J37" t="n">
         <v>0</v>
@@ -25357,7 +25357,7 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>0</v>
+        <v>21.20364308168184</v>
       </c>
       <c r="S37" t="n">
         <v>0</v>
@@ -25378,7 +25378,7 @@
         <v>0</v>
       </c>
       <c r="Y37" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C40" t="n">
         <v>0</v>
@@ -25564,10 +25564,10 @@
         <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>87.77334973307141</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25609,10 +25609,10 @@
         <v>0</v>
       </c>
       <c r="W40" t="n">
-        <v>197.1718905122111</v>
+        <v>0</v>
       </c>
       <c r="X40" t="n">
-        <v>0</v>
+        <v>160.7958207444077</v>
       </c>
       <c r="Y40" t="n">
         <v>0</v>
@@ -25795,13 +25795,13 @@
         <v>0</v>
       </c>
       <c r="F43" t="n">
-        <v>23.65030257151111</v>
+        <v>0</v>
       </c>
       <c r="G43" t="n">
         <v>0</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I43" t="n">
         <v>87.77334973307141</v>
@@ -25840,7 +25840,7 @@
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>275.6486707394257</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>160.7958207444073</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26041,7 +26041,7 @@
         <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,13 +26068,13 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>157.6489550149833</v>
       </c>
       <c r="T46" t="n">
-        <v>52.94985625021889</v>
+        <v>0</v>
       </c>
       <c r="U46" t="n">
         <v>0</v>
@@ -26086,7 +26086,7 @@
         <v>0</v>
       </c>
       <c r="X46" t="n">
-        <v>0</v>
+        <v>4.277894049991858</v>
       </c>
       <c r="Y46" t="n">
         <v>225.1454739790328</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>621562.1746627631</v>
+        <v>627393.7337537755</v>
       </c>
     </row>
     <row r="3">
@@ -26131,7 +26131,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>621562.1746627631</v>
+        <v>629045.0758973636</v>
       </c>
     </row>
     <row r="4">
@@ -26139,7 +26139,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>622649.8575318835</v>
+        <v>629045.0758973636</v>
       </c>
     </row>
     <row r="5">
@@ -26171,7 +26171,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>607398.4912765747</v>
+        <v>607398.4912765746</v>
       </c>
     </row>
     <row r="9">
@@ -26219,7 +26219,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>633031.4016936516</v>
+        <v>633031.4016936515</v>
       </c>
     </row>
     <row r="15">
@@ -26227,7 +26227,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>633031.4016936515</v>
+        <v>633031.4016936516</v>
       </c>
     </row>
     <row r="16">
@@ -26235,7 +26235,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>633031.4016936516</v>
+        <v>633031.4016936515</v>
       </c>
     </row>
   </sheetData>
@@ -26311,22 +26311,22 @@
         </is>
       </c>
       <c r="B2" t="n">
+        <v>335092.0749315052</v>
+      </c>
+      <c r="C2" t="n">
         <v>335092.0749315051</v>
       </c>
-      <c r="C2" t="n">
-        <v>335092.0749315052</v>
-      </c>
       <c r="D2" t="n">
-        <v>335092.0749315053</v>
+        <v>335092.0749315051</v>
       </c>
       <c r="E2" t="n">
+        <v>315952.4362322978</v>
+      </c>
+      <c r="F2" t="n">
+        <v>315952.4362322977</v>
+      </c>
+      <c r="G2" t="n">
         <v>315952.4362322979</v>
-      </c>
-      <c r="F2" t="n">
-        <v>315952.4362322978</v>
-      </c>
-      <c r="G2" t="n">
-        <v>315952.4362322978</v>
       </c>
       <c r="H2" t="n">
         <v>315952.4362322978</v>
@@ -26338,7 +26338,7 @@
         <v>329285.9900858453</v>
       </c>
       <c r="K2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858453</v>
       </c>
       <c r="L2" t="n">
         <v>329285.9900858452</v>
@@ -26350,7 +26350,7 @@
         <v>329285.9900858451</v>
       </c>
       <c r="O2" t="n">
-        <v>329285.9900858452</v>
+        <v>329285.9900858451</v>
       </c>
       <c r="P2" t="n">
         <v>329285.9900858451</v>
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>142191.3006597099</v>
+        <v>205712.2565039028</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>17340.54437390679</v>
       </c>
       <c r="D3" t="n">
-        <v>10981.8066720022</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>223799.2937520279</v>
+        <v>161735.0752101144</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>18364.71563283952</v>
       </c>
       <c r="J3" t="n">
-        <v>111014.4653449902</v>
+        <v>160607.8294856132</v>
       </c>
       <c r="K3" t="n">
-        <v>0</v>
+        <v>13814.00856784525</v>
       </c>
       <c r="L3" t="n">
-        <v>8947.611088509506</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
-        <v>186790.9866104681</v>
+        <v>134989.9446130034</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>2.574418839027077e-11</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,19 +26415,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>187564.5330558133</v>
+        <v>150016.3828485738</v>
       </c>
       <c r="C4" t="n">
-        <v>187564.5330558133</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="D4" t="n">
-        <v>180561.1778449373</v>
+        <v>139383.7472389045</v>
       </c>
       <c r="E4" t="n">
         <v>39457.78817960744</v>
       </c>
       <c r="F4" t="n">
-        <v>39457.78817960745</v>
+        <v>39457.78817960744</v>
       </c>
       <c r="G4" t="n">
         <v>39457.78817960744</v>
@@ -26451,7 +26451,7 @@
         <v>41122.95192991276</v>
       </c>
       <c r="N4" t="n">
-        <v>41122.95192991271</v>
+        <v>41122.9519299127</v>
       </c>
       <c r="O4" t="n">
         <v>41122.95192991272</v>
@@ -26467,19 +26467,19 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>59424.78813722234</v>
+        <v>70949.13625814189</v>
       </c>
       <c r="C5" t="n">
-        <v>59424.78813722234</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="D5" t="n">
-        <v>61574.2709484696</v>
+        <v>74212.5245617577</v>
       </c>
       <c r="E5" t="n">
         <v>73519.34227764753</v>
       </c>
       <c r="F5" t="n">
-        <v>73519.34227764753</v>
+        <v>73519.34227764752</v>
       </c>
       <c r="G5" t="n">
         <v>73519.34227764752</v>
@@ -26503,7 +26503,7 @@
         <v>77718.2386057925</v>
       </c>
       <c r="N5" t="n">
-        <v>77718.2386057925</v>
+        <v>77718.23860579252</v>
       </c>
       <c r="O5" t="n">
         <v>77718.23860579252</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-54088.54692124039</v>
+        <v>-91585.70067911327</v>
       </c>
       <c r="C6" t="n">
-        <v>88102.75373846956</v>
+        <v>104155.2587569361</v>
       </c>
       <c r="D6" t="n">
-        <v>81974.81946609623</v>
+        <v>121495.8031308429</v>
       </c>
       <c r="E6" t="n">
-        <v>-20823.98797698499</v>
+        <v>41163.67201013154</v>
       </c>
       <c r="F6" t="n">
-        <v>202975.3057750428</v>
+        <v>202898.7472202459</v>
       </c>
       <c r="G6" t="n">
-        <v>202975.3057750429</v>
+        <v>202898.7472202462</v>
       </c>
       <c r="H6" t="n">
-        <v>202975.3057750429</v>
+        <v>202898.747220246</v>
       </c>
       <c r="I6" t="n">
-        <v>192080.0839173005</v>
+        <v>192056.8595779178</v>
       </c>
       <c r="J6" t="n">
-        <v>99430.33420514988</v>
+        <v>49813.74572514426</v>
       </c>
       <c r="K6" t="n">
-        <v>210444.79955014</v>
+        <v>196607.5666429121</v>
       </c>
       <c r="L6" t="n">
-        <v>201497.1884616305</v>
+        <v>210421.5752107573</v>
       </c>
       <c r="M6" t="n">
-        <v>23653.81293967192</v>
+        <v>75431.6305977539</v>
       </c>
       <c r="N6" t="n">
-        <v>210444.7995501399</v>
+        <v>210421.5752107573</v>
       </c>
       <c r="O6" t="n">
-        <v>210444.79955014</v>
+        <v>210421.5752107572</v>
       </c>
       <c r="P6" t="n">
-        <v>210444.7995501399</v>
+        <v>210421.5752107572</v>
       </c>
     </row>
   </sheetData>
@@ -26787,13 +26787,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>424.2958575201043</v>
+        <v>667.515206607857</v>
       </c>
       <c r="D4" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="E4" t="n">
         <v>1209.19970851394</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>0</v>
+        <v>3.218023548783847e-14</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -27009,16 +27009,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="D4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,16 +27033,16 @@
         <v>69.06079487080569</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.5505152825318</v>
+        <v>541.6845019060827</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27255,16 +27255,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>424.2958575201043</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>53.67414973052303</v>
       </c>
       <c r="L4" t="n">
-        <v>35.35333571130347</v>
+        <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>749.550515282532</v>
+        <v>541.6845019060829</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27382,22 +27382,22 @@
         <v>400</v>
       </c>
       <c r="D2" t="n">
-        <v>111.1117530257919</v>
+        <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0</v>
+        <v>397.3838530629687</v>
       </c>
       <c r="H2" t="n">
-        <v>286.2388530112159</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27427,25 +27427,25 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T2" t="n">
         <v>217.8665548556918</v>
       </c>
       <c r="U2" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W2" t="n">
+        <v>4.237799521788645</v>
+      </c>
+      <c r="X2" t="n">
+        <v>0</v>
+      </c>
+      <c r="Y2" t="n">
         <v>400</v>
-      </c>
-      <c r="X2" t="n">
-        <v>400</v>
-      </c>
-      <c r="Y2" t="n">
-        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27534,13 +27534,13 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
         <v>0</v>
@@ -27552,7 +27552,7 @@
         <v>0</v>
       </c>
       <c r="H4" t="n">
-        <v>138.5031525665292</v>
+        <v>0</v>
       </c>
       <c r="I4" t="n">
         <v>0</v>
@@ -27582,25 +27582,25 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>137.0640105043435</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>127.287652219268</v>
       </c>
       <c r="V4" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W4" t="n">
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y4" t="n">
         <v>225.1454739790328</v>
@@ -27619,10 +27619,10 @@
         <v>400</v>
       </c>
       <c r="D5" t="n">
-        <v>392.2094661638245</v>
+        <v>124.9507141550199</v>
       </c>
       <c r="E5" t="n">
-        <v>5.14113987318342</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>0</v>
@@ -27631,10 +27631,10 @@
         <v>0</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>286.2388530112159</v>
       </c>
       <c r="I5" t="n">
-        <v>0.4126214791313976</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -27664,13 +27664,13 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>82.81535507800136</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
-        <v>217.8665548556918</v>
+        <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V5" t="n">
         <v>358.9907805655117</v>
@@ -27682,7 +27682,7 @@
         <v>400</v>
       </c>
       <c r="Y5" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -27771,28 +27771,28 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>84.63380825304843</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>163.9353622244306</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>138.5031525665292</v>
       </c>
       <c r="I7" t="n">
-        <v>87.77334973307141</v>
+        <v>0</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27819,19 +27819,19 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>21.20364308168184</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>157.6489550149833</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>243.4206519573293</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
-        <v>11.86968034452207</v>
+        <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -27850,7 +27850,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>400</v>
+        <v>86.14502017843148</v>
       </c>
       <c r="C8" t="n">
         <v>400</v>
@@ -27859,10 +27859,10 @@
         <v>400</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="F8" t="n">
-        <v>236.2013652336016</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>397.3838530629687</v>
@@ -27907,19 +27907,19 @@
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>256.6300796561533</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -28008,7 +28008,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C10" t="n">
         <v>0</v>
@@ -28017,7 +28017,7 @@
         <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>87.13345082093652</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -28062,7 +28062,7 @@
         <v>157.6489550149833</v>
       </c>
       <c r="T10" t="n">
-        <v>243.4206519573293</v>
+        <v>208.2197249473429</v>
       </c>
       <c r="U10" t="n">
         <v>0</v>
@@ -28071,13 +28071,13 @@
         <v>0</v>
       </c>
       <c r="W10" t="n">
-        <v>269.3061403695714</v>
+        <v>0</v>
       </c>
       <c r="X10" t="n">
         <v>0</v>
       </c>
       <c r="Y10" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -29995,7 +29995,7 @@
         <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>9.003997547551989e-13</v>
       </c>
       <c r="G35" t="n">
         <v>0</v>
@@ -30232,7 +30232,7 @@
         <v>0</v>
       </c>
       <c r="F38" t="n">
-        <v>0</v>
+        <v>-5.142369289011372e-13</v>
       </c>
       <c r="G38" t="n">
         <v>0</v>
@@ -34696,13 +34696,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>424.2958575201043</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K2" t="n">
-        <v>0</v>
+        <v>613.841056877334</v>
       </c>
       <c r="L2" t="n">
-        <v>0</v>
+        <v>40.34758805803858</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -34711,13 +34711,13 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>424.2958575201043</v>
+        <v>0</v>
       </c>
       <c r="P2" t="n">
-        <v>236.2898988798406</v>
+        <v>613.8410568773338</v>
       </c>
       <c r="Q2" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R2" t="n">
         <v>170.8626916697544</v>
@@ -34775,13 +34775,13 @@
         <v>26.32694258632081</v>
       </c>
       <c r="J3" t="n">
-        <v>327.836691885063</v>
+        <v>327.8366918850629</v>
       </c>
       <c r="K3" t="n">
-        <v>424.2958575201044</v>
+        <v>613.8410568773339</v>
       </c>
       <c r="L3" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -34790,13 +34790,13 @@
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
+        <v>47.47818213854873</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R3" t="n">
         <v>118.3563415094341</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K4" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L4" t="n">
-        <v>296.5687363523682</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M4" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N4" t="n">
-        <v>424.2958575201044</v>
+        <v>404.0898091700262</v>
       </c>
       <c r="O4" t="n">
-        <v>0</v>
+        <v>423.9083325512943</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q4" t="n">
-        <v>169.8916917821539</v>
+        <v>0</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34933,10 +34933,10 @@
         <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K5" t="n">
-        <v>407.152590549595</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L5" t="n">
         <v>0</v>
@@ -34948,16 +34948,16 @@
         <v>0</v>
       </c>
       <c r="O5" t="n">
-        <v>424.2958575201043</v>
+        <v>145.5272350047205</v>
       </c>
       <c r="P5" t="n">
-        <v>424.2958575201044</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q5" t="n">
-        <v>424.2958575201044</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R5" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35015,10 +35015,10 @@
         <v>327.836691885063</v>
       </c>
       <c r="K6" t="n">
-        <v>424.2958575201044</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L6" t="n">
-        <v>358.9284720888814</v>
+        <v>0</v>
       </c>
       <c r="M6" t="n">
         <v>0</v>
@@ -35033,7 +35033,7 @@
         <v>0</v>
       </c>
       <c r="Q6" t="n">
-        <v>424.2958575201044</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R6" t="n">
         <v>118.3563415094341</v>
@@ -35091,28 +35091,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L7" t="n">
         <v>422.4342240080415</v>
       </c>
       <c r="M7" t="n">
-        <v>424.2958575201044</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N7" t="n">
-        <v>58.38468441396105</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O7" t="n">
-        <v>423.9083325512944</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P7" t="n">
-        <v>351.0170646165068</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q7" t="n">
-        <v>0</v>
+        <v>169.8916917821539</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35173,7 +35173,7 @@
         <v>0</v>
       </c>
       <c r="K8" t="n">
-        <v>459.6491932314078</v>
+        <v>667.515206607857</v>
       </c>
       <c r="L8" t="n">
         <v>0</v>
@@ -35185,16 +35185,16 @@
         <v>0</v>
       </c>
       <c r="O8" t="n">
-        <v>459.6491932314078</v>
+        <v>585.1784344521124</v>
       </c>
       <c r="P8" t="n">
-        <v>441.0775086564016</v>
+        <v>667.515206607857</v>
       </c>
       <c r="Q8" t="n">
-        <v>459.6491932314077</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>170.8626916697544</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35252,7 +35252,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K9" t="n">
-        <v>459.6491932314078</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
@@ -35267,10 +35267,10 @@
         <v>0</v>
       </c>
       <c r="P9" t="n">
-        <v>288.2218006662745</v>
+        <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>459.6491932314079</v>
+        <v>546.2009481132077</v>
       </c>
       <c r="R9" t="n">
         <v>118.3563415094341</v>
@@ -35328,25 +35328,25 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>87.45422743908067</v>
+        <v>87.45422743908068</v>
       </c>
       <c r="K10" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L10" t="n">
-        <v>401.5878508505915</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M10" t="n">
-        <v>459.6491932314078</v>
+        <v>464.1251183645587</v>
       </c>
       <c r="N10" t="n">
-        <v>0</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O10" t="n">
         <v>423.9083325512945</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>351.017064616507</v>
       </c>
       <c r="Q10" t="n">
         <v>169.8916917821539</v>
@@ -35407,19 +35407,19 @@
         <v>0</v>
       </c>
       <c r="J11" t="n">
-        <v>309.6062697457111</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K11" t="n">
         <v>842.7780726850283</v>
       </c>
       <c r="L11" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M11" t="n">
         <v>0</v>
       </c>
       <c r="N11" t="n">
-        <v>0</v>
+        <v>955.8742281294903</v>
       </c>
       <c r="O11" t="n">
         <v>990.0804712831377</v>
@@ -35489,22 +35489,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K12" t="n">
+        <v>0</v>
+      </c>
+      <c r="L12" t="n">
+        <v>0</v>
+      </c>
+      <c r="M12" t="n">
+        <v>0</v>
+      </c>
+      <c r="N12" t="n">
+        <v>0</v>
+      </c>
+      <c r="O12" t="n">
+        <v>0</v>
+      </c>
+      <c r="P12" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L12" t="n">
-        <v>0</v>
-      </c>
-      <c r="M12" t="n">
-        <v>0</v>
-      </c>
-      <c r="N12" t="n">
-        <v>0</v>
-      </c>
-      <c r="O12" t="n">
-        <v>0</v>
-      </c>
-      <c r="P12" t="n">
-        <v>0</v>
       </c>
       <c r="Q12" t="n">
         <v>546.2009481132077</v>
@@ -35650,10 +35650,10 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L14" t="n">
-        <v>1085.919157831171</v>
+        <v>955.8742281294894</v>
       </c>
       <c r="M14" t="n">
-        <v>706.6317115441739</v>
+        <v>0</v>
       </c>
       <c r="N14" t="n">
         <v>0</v>
@@ -35662,7 +35662,7 @@
         <v>990.0804712831377</v>
       </c>
       <c r="P14" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q14" t="n">
         <v>552.0189757157523</v>
@@ -35726,22 +35726,22 @@
         <v>327.836691885063</v>
       </c>
       <c r="K15" t="n">
+        <v>0</v>
+      </c>
+      <c r="L15" t="n">
+        <v>0</v>
+      </c>
+      <c r="M15" t="n">
+        <v>0</v>
+      </c>
+      <c r="N15" t="n">
+        <v>0</v>
+      </c>
+      <c r="O15" t="n">
+        <v>0</v>
+      </c>
+      <c r="P15" t="n">
         <v>661.3192390158827</v>
-      </c>
-      <c r="L15" t="n">
-        <v>0</v>
-      </c>
-      <c r="M15" t="n">
-        <v>0</v>
-      </c>
-      <c r="N15" t="n">
-        <v>0</v>
-      </c>
-      <c r="O15" t="n">
-        <v>0</v>
-      </c>
-      <c r="P15" t="n">
-        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>546.2009481132077</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>87.45422743908068</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K16" t="n">
         <v>277.5337924960966</v>
@@ -35884,13 +35884,13 @@
         <v>439.6511994473918</v>
       </c>
       <c r="K17" t="n">
-        <v>712.7331429833466</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L17" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M17" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="N17" t="n">
         <v>0</v>
@@ -35905,7 +35905,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R17" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S17" t="n">
         <v>0</v>
@@ -35963,7 +35963,7 @@
         <v>327.836691885063</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>661.3192390158827</v>
       </c>
       <c r="L18" t="n">
         <v>0</v>
@@ -35978,7 +35978,7 @@
         <v>0</v>
       </c>
       <c r="P18" t="n">
-        <v>661.3192390158827</v>
+        <v>0</v>
       </c>
       <c r="Q18" t="n">
         <v>546.2009481132077</v>
@@ -36124,13 +36124,13 @@
         <v>842.7780726850283</v>
       </c>
       <c r="L20" t="n">
-        <v>955.8742281294894</v>
+        <v>1085.919157831171</v>
       </c>
       <c r="M20" t="n">
         <v>0</v>
       </c>
       <c r="N20" t="n">
-        <v>0</v>
+        <v>40.81776196807232</v>
       </c>
       <c r="O20" t="n">
         <v>990.0804712831377</v>
@@ -36142,7 +36142,7 @@
         <v>552.0189757157523</v>
       </c>
       <c r="R20" t="n">
-        <v>170.862691669754</v>
+        <v>0</v>
       </c>
       <c r="S20" t="n">
         <v>0</v>
@@ -36364,10 +36364,10 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M23" t="n">
+        <v>0</v>
+      </c>
+      <c r="N23" t="n">
         <v>143.4079146352447</v>
-      </c>
-      <c r="N23" t="n">
-        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>990.0804712831377</v>
@@ -36522,13 +36522,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M25" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O25" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P25" t="n">
         <v>351.017064616507</v>
@@ -36595,16 +36595,16 @@
         <v>0</v>
       </c>
       <c r="K26" t="n">
-        <v>459.5978749662599</v>
+        <v>842.7780726850283</v>
       </c>
       <c r="L26" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M26" t="n">
-        <v>0</v>
+        <v>753.9218057523904</v>
       </c>
       <c r="N26" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O26" t="n">
         <v>990.0804712831377</v>
@@ -36668,13 +36668,13 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0.03656536949883105</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J27" t="n">
         <v>327.836691885063</v>
       </c>
       <c r="K27" t="n">
-        <v>687.6096162327044</v>
+        <v>661.3192390158824</v>
       </c>
       <c r="L27" t="n">
         <v>0</v>
@@ -36835,13 +36835,13 @@
         <v>842.7780726850282</v>
       </c>
       <c r="L29" t="n">
-        <v>1085.919157831171</v>
+        <v>0</v>
       </c>
       <c r="M29" t="n">
-        <v>0</v>
+        <v>92.22506899525706</v>
       </c>
       <c r="N29" t="n">
-        <v>143.4079146352447</v>
+        <v>1137.102003471159</v>
       </c>
       <c r="O29" t="n">
         <v>990.0804712831377</v>
@@ -37066,31 +37066,31 @@
         <v>0</v>
       </c>
       <c r="J32" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K32" t="n">
-        <v>679.5583048465032</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L32" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M32" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N32" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352447</v>
       </c>
       <c r="O32" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P32" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q32" t="n">
-        <v>0</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37233,13 +37233,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>464.1251183645586</v>
+        <v>464.1251183645588</v>
       </c>
       <c r="N34" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O34" t="n">
-        <v>423.9083325512947</v>
+        <v>423.9083325512945</v>
       </c>
       <c r="P34" t="n">
         <v>351.017064616507</v>
@@ -37312,16 +37312,16 @@
         <v>1085.919157831171</v>
       </c>
       <c r="M35" t="n">
-        <v>0</v>
+        <v>1168.735187081365</v>
       </c>
       <c r="N35" t="n">
-        <v>143.4079146352447</v>
+        <v>0</v>
       </c>
       <c r="O35" t="n">
-        <v>990.0804712831377</v>
+        <v>0</v>
       </c>
       <c r="P35" t="n">
-        <v>836.6766412458546</v>
+        <v>801.4298400828725</v>
       </c>
       <c r="Q35" t="n">
         <v>552.0189757157523</v>
@@ -37476,7 +37476,7 @@
         <v>446.7260637956006</v>
       </c>
       <c r="O37" t="n">
-        <v>423.9083325512943</v>
+        <v>423.9083325512947</v>
       </c>
       <c r="P37" t="n">
         <v>351.017064616507</v>
@@ -37540,28 +37540,28 @@
         <v>0</v>
       </c>
       <c r="J38" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K38" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L38" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M38" t="n">
-        <v>1168.735187081365</v>
+        <v>0</v>
       </c>
       <c r="N38" t="n">
-        <v>1137.102003471159</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="O38" t="n">
         <v>990.0804712831377</v>
       </c>
       <c r="P38" t="n">
-        <v>0</v>
+        <v>836.6766412458546</v>
       </c>
       <c r="Q38" t="n">
-        <v>508.6956131767483</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R38" t="n">
         <v>170.862691669754</v>
@@ -37616,7 +37616,7 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>26.3269425863208</v>
+        <v>26.32694258632081</v>
       </c>
       <c r="J39" t="n">
         <v>327.836691885063</v>
@@ -37698,7 +37698,7 @@
         <v>0</v>
       </c>
       <c r="J40" t="n">
-        <v>87.45422743908065</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K40" t="n">
         <v>277.5337924960966</v>
@@ -37777,16 +37777,16 @@
         <v>0</v>
       </c>
       <c r="J41" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K41" t="n">
-        <v>842.7780726850283</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L41" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M41" t="n">
-        <v>1168.735187081365</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N41" t="n">
         <v>0</v>
@@ -37798,10 +37798,10 @@
         <v>836.6766412458546</v>
       </c>
       <c r="Q41" t="n">
-        <v>137.205594386779</v>
+        <v>552.0189757157523</v>
       </c>
       <c r="R41" t="n">
-        <v>0</v>
+        <v>170.862691669754</v>
       </c>
       <c r="S41" t="n">
         <v>0</v>
@@ -38014,19 +38014,19 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>0</v>
+        <v>439.6511994473918</v>
       </c>
       <c r="K44" t="n">
-        <v>0</v>
+        <v>842.7780726850282</v>
       </c>
       <c r="L44" t="n">
         <v>1085.919157831171</v>
       </c>
       <c r="M44" t="n">
-        <v>288.7351832965069</v>
+        <v>143.4079146352456</v>
       </c>
       <c r="N44" t="n">
-        <v>1137.102003471159</v>
+        <v>0</v>
       </c>
       <c r="O44" t="n">
         <v>990.0804712831377</v>
@@ -38184,7 +38184,7 @@
         <v>464.1251183645586</v>
       </c>
       <c r="N46" t="n">
-        <v>446.7260637956037</v>
+        <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
         <v>423.9083325512943</v>
